--- a/Заготовки/Мат. статистика/статистика доверительный интервал.xlsx
+++ b/Заготовки/Мат. статистика/статистика доверительный интервал.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>i</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>t находится по таблице коэффициент Стьюдента</t>
+  </si>
+  <si>
+    <t>где</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -163,7 +169,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>276890</xdr:colOff>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
@@ -545,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,19 +594,19 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <f>B2*C2</f>
+        <f t="shared" ref="D2:D7" si="0">B2*C2</f>
         <v>94</v>
       </c>
       <c r="E2">
-        <f>B2-$B$12</f>
+        <f t="shared" ref="E2:E7" si="1">B2-$B$12</f>
         <v>-2.75</v>
       </c>
       <c r="F2">
-        <f>E2^2</f>
+        <f t="shared" ref="F2:F7" si="2">E2^2</f>
         <v>7.5625</v>
       </c>
       <c r="G2">
-        <f>F2*C2</f>
+        <f t="shared" ref="G2:G7" si="3">F2*C2</f>
         <v>15.125</v>
       </c>
     </row>
@@ -615,19 +621,19 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <f>B3*C3</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="E3">
-        <f>B3-$B$12</f>
+        <f t="shared" si="1"/>
         <v>-1.75</v>
       </c>
       <c r="F3">
-        <f>E3^2</f>
+        <f t="shared" si="2"/>
         <v>3.0625</v>
       </c>
       <c r="G3">
-        <f>F3*C3</f>
+        <f t="shared" si="3"/>
         <v>9.1875</v>
       </c>
     </row>
@@ -642,19 +648,19 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <f>B4*C4</f>
+        <f t="shared" si="0"/>
         <v>147</v>
       </c>
       <c r="E4">
-        <f>B4-$B$12</f>
+        <f t="shared" si="1"/>
         <v>-0.75</v>
       </c>
       <c r="F4">
-        <f>E4^2</f>
+        <f t="shared" si="2"/>
         <v>0.5625</v>
       </c>
       <c r="G4">
-        <f>F4*C4</f>
+        <f t="shared" si="3"/>
         <v>1.6875</v>
       </c>
     </row>
@@ -669,19 +675,19 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <f>B5*C5</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="E5">
-        <f>B5-$B$12</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="F5">
-        <f>E5^2</f>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="G5">
-        <f>F5*C5</f>
+        <f t="shared" si="3"/>
         <v>0.3125</v>
       </c>
     </row>
@@ -696,19 +702,19 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <f>B6*C6</f>
+        <f t="shared" si="0"/>
         <v>204</v>
       </c>
       <c r="E6">
-        <f>B6-$B$12</f>
+        <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
       <c r="F6">
-        <f>E6^2</f>
+        <f t="shared" si="2"/>
         <v>1.5625</v>
       </c>
       <c r="G6">
-        <f>F6*C6</f>
+        <f t="shared" si="3"/>
         <v>6.25</v>
       </c>
     </row>
@@ -723,19 +729,19 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <f>B7*C7</f>
+        <f t="shared" si="0"/>
         <v>156</v>
       </c>
       <c r="E7">
-        <f>B7-$B$12</f>
+        <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
       <c r="F7">
-        <f>E7^2</f>
+        <f t="shared" si="2"/>
         <v>5.0625</v>
       </c>
       <c r="G7">
-        <f>F7*C7</f>
+        <f t="shared" si="3"/>
         <v>15.1875</v>
       </c>
     </row>
@@ -764,12 +770,17 @@
         <v>47.75</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12">
-        <f>1/C8 * D8</f>
+        <f>D8/C8</f>
         <v>49.75</v>
       </c>
     </row>
@@ -778,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <f>1/C8*G8</f>
+        <f>G8/C8</f>
         <v>2.3875000000000002</v>
       </c>
     </row>
@@ -806,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,6 +843,9 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Заготовки/Мат. статистика/статистика доверительный интервал.xlsx
+++ b/Заготовки/Мат. статистика/статистика доверительный интервал.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>i</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>С надёжностью gamma средний рост а у обследуемых детей заключен в доверительном интервале 48,37 &lt; а &lt; 51,13.</t>
   </si>
 </sst>
 </file>
@@ -815,10 +818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B13"/>
+  <dimension ref="A3:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,6 +855,11 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
